--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junsa\Desktop\guraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81B42C-2EF4-4B96-96A9-34808283CA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307D997A-40D0-413E-BBFB-C6C9383FE636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="2565" windowWidth="14385" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="930" windowWidth="14385" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>tension</t>
     <phoneticPr fontId="1"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Temp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -114,10 +122,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -398,18 +412,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -417,17 +432,20 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -437,17 +455,20 @@
       <c r="C2">
         <v>2.5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -457,17 +478,20 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -477,17 +501,20 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -497,17 +524,20 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>60</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -517,17 +547,20 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
         <v>60</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -535,19 +568,22 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -557,17 +593,20 @@
       <c r="C8">
         <v>2.5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -577,17 +616,20 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
         <v>60</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -597,17 +639,20 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1">
         <v>60</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -617,17 +662,20 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -637,17 +685,20 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="2">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -657,13 +708,16 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
         <v>60</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>45040</v>
       </c>
     </row>
